--- a/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732A1FB5-D343-4606-B370-19DC38BFAA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D667A1-D939-48BD-884E-2A84A4A3C0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -430,6 +430,9 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -447,9 +450,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -478,7 +478,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:O22" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A2:O21" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025. 02. 20." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 02. 20.])</totalsRowFormula>
     </tableColumn>
@@ -515,7 +515,7 @@
     <tableColumn id="13" xr3:uid="{031B93BC-38C5-483A-B04C-918980083F8A}" name="2025.05.22" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.05.22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -827,8 +827,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A3:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>36</v>
       </c>
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>38</v>
       </c>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>42</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>44</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>48</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>50</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>52</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>54</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>56</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="22">
         <f ca="1">NOW()+1</f>
-        <v>45727.365966203703</v>
+        <v>45730.309589699071</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -1186,7 +1186,7 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D667A1-D939-48BD-884E-2A84A4A3C0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24A7CB5-16D8-4223-9B2F-DF839D669B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -828,7 +828,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A3:XFD21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,8 +1139,8 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="22">
-        <f ca="1">NOW()+1</f>
-        <v>45730.309589699071</v>
+        <f ca="1">NOW()</f>
+        <v>45736.403309606481</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24A7CB5-16D8-4223-9B2F-DF839D669B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E0EFF9-CC6E-45FF-9382-01C004F40DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -430,9 +430,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -450,6 +447,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -478,7 +478,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:O22" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A2:O21" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025. 02. 20." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 02. 20.])</totalsRowFormula>
     </tableColumn>
@@ -515,7 +515,7 @@
     <tableColumn id="13" xr3:uid="{031B93BC-38C5-483A-B04C-918980083F8A}" name="2025.05.22" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.05.22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -827,7 +827,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -881,7 +881,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="20">
         <f>VLOOKUP(A3,Táblázat3[],14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1049,7 +1049,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="20">
         <f>VLOOKUP(A15,Táblázat3[],14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1140,7 +1140,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="22">
         <f ca="1">NOW()</f>
-        <v>45736.403309606481</v>
+        <v>45750.340673495368</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -1190,7 +1190,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="N3">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>23</v>
@@ -1869,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="N15" s="19">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>47</v>
@@ -2216,15 +2216,15 @@
       </c>
       <c r="E22">
         <f>SUM(Táblázat3[2025. 03. 13.])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <f>SUM(Táblázat3[2025. 03. 20.])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <f>SUM(Táblázat3[2025. 03. 27.])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <f>SUM(Táblázat3[2025. 04. 03.])</f>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="N22">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E0EFF9-CC6E-45FF-9382-01C004F40DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7CE1CC-1FF4-42E8-AB4B-F0B79154559A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -827,8 +827,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +895,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="20">
         <f>VLOOKUP(A4,Táblázat3[],14)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -923,7 +923,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="20">
         <f>VLOOKUP(A6,Táblázat3[],14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -937,7 +937,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="20">
         <f>VLOOKUP(A7,Táblázat3[],14)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -965,7 +965,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="20">
         <f>VLOOKUP(A9,Táblázat3[],14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1021,7 +1021,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="20">
         <f>VLOOKUP(A13,Táblázat3[],14)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1049,7 +1049,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="20">
         <f>VLOOKUP(A15,Táblázat3[],14)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1105,7 +1105,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="20">
         <f>VLOOKUP(A19,Táblázat3[],14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1140,7 +1140,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="22">
         <f ca="1">NOW()</f>
-        <v>45750.340673495368</v>
+        <v>45765.659075694442</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -1186,11 +1186,11 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="N4">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>25</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="N6">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>29</v>
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="N7">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>31</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="N9">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>35</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="N13" s="19">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13" s="16" t="s">
         <v>43</v>
@@ -1878,10 +1878,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="N15" s="19">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>47</v>
@@ -2074,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="N19" s="19">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" s="16" t="s">
         <v>55</v>
@@ -2228,11 +2228,11 @@
       </c>
       <c r="H22">
         <f>SUM(Táblázat3[2025. 04. 03.])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <f>SUM(Táblázat3[2025. 04. 17.])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J22">
         <f>SUM(Táblázat3[2025. 04. 24.])</f>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="N22">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7CE1CC-1FF4-42E8-AB4B-F0B79154559A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9CF1FA-4B90-4FC4-B588-EE73DB5C2C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -430,6 +430,9 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -447,9 +450,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -478,7 +478,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:O22" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A2:O21" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025. 02. 20." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 02. 20.])</totalsRowFormula>
     </tableColumn>
@@ -515,7 +515,7 @@
     <tableColumn id="13" xr3:uid="{031B93BC-38C5-483A-B04C-918980083F8A}" name="2025.05.22" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.05.22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -827,7 +827,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E22" sqref="E22:G22"/>
     </sheetView>
   </sheetViews>
@@ -1140,7 +1140,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="22">
         <f ca="1">NOW()</f>
-        <v>45765.659075694442</v>
+        <v>45769.391289814812</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -1186,7 +1186,7 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9CF1FA-4B90-4FC4-B588-EE73DB5C2C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1959D9-AA4F-4E10-A737-CF38DD3124CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -430,9 +430,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -450,6 +447,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -478,7 +478,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:O22" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A2:O21" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025. 02. 20." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 02. 20.])</totalsRowFormula>
     </tableColumn>
@@ -515,7 +515,7 @@
     <tableColumn id="13" xr3:uid="{031B93BC-38C5-483A-B04C-918980083F8A}" name="2025.05.22" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.05.22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -827,7 +827,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E22" sqref="E22:G22"/>
     </sheetView>
   </sheetViews>
@@ -881,7 +881,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="20">
         <f>VLOOKUP(A3,Táblázat3[],14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -979,7 +979,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="20">
         <f>VLOOKUP(A10,Táblázat3[],14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1049,7 +1049,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="20">
         <f>VLOOKUP(A15,Táblázat3[],14)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1140,7 +1140,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="22">
         <f ca="1">NOW()</f>
-        <v>45769.391289814812</v>
+        <v>45776.776145138887</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -1186,11 +1186,11 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="N3">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>23</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="N10">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>37</v>
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="N15" s="19">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>47</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="J22">
         <f>SUM(Táblázat3[2025. 04. 24.])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22">
         <f>SUM(Táblázat3[2025. 05. 08.])</f>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="N22">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1959D9-AA4F-4E10-A737-CF38DD3124CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CB6447-DABA-473C-80B5-A84E9803E2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -1119,7 +1119,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="20">
         <f>VLOOKUP(A20,Táblázat3[],14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1140,7 +1140,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="22">
         <f ca="1">NOW()</f>
-        <v>45776.776145138887</v>
+        <v>45786.624214699077</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -1190,7 +1190,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="N20" s="19">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>57</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="K22">
         <f>SUM(Táblázat3[2025. 05. 08.])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <f>SUM(Táblázat3[2025. 05. 15.])</f>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="N22">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2025_cs1618.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CB6447-DABA-473C-80B5-A84E9803E2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F270BF-D40E-4E70-BA7F-D702BCA35BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>Név</t>
   </si>
@@ -219,6 +219,9 @@
   <si>
     <t>Haladó természetes nyelvű feldolgozás
 JELENLÉTI</t>
+  </si>
+  <si>
+    <t>Jegy</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -447,6 +450,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -475,10 +481,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:O22" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A2:O21" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:P22" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="A2:P21" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2025. 02. 20." totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025. 02. 20.])</totalsRowFormula>
     </tableColumn>
@@ -515,11 +521,12 @@
     <tableColumn id="13" xr3:uid="{031B93BC-38C5-483A-B04C-918980083F8A}" name="2025.05.22" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2025.05.22])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="2">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
+    <tableColumn id="14" xr3:uid="{1F04DF52-A2DA-48EB-91A4-E85AB6A24909}" name="Jegy" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -828,7 +835,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:G22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +888,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="20">
         <f>VLOOKUP(A3,Táblázat3[],14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -923,7 +930,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="20">
         <f>VLOOKUP(A6,Táblázat3[],14)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -993,7 +1000,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="20">
         <f>VLOOKUP(A11,Táblázat3[],14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1021,7 +1028,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="20">
         <f>VLOOKUP(A13,Táblázat3[],14)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1105,7 +1112,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="20">
         <f>VLOOKUP(A19,Táblázat3[],14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1119,7 +1126,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="20">
         <f>VLOOKUP(A20,Táblázat3[],14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1140,7 +1147,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="22">
         <f ca="1">NOW()</f>
-        <v>45786.624214699077</v>
+        <v>45809.733510300925</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -1190,13 +1197,14 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1219,6 +1227,7 @@
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1265,6 +1274,9 @@
       </c>
       <c r="O2" s="18" t="s">
         <v>8</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1302,19 +1314,21 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -1363,7 +1377,9 @@
       <c r="O4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="4"/>
+      <c r="P4" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
@@ -1412,7 +1428,9 @@
       <c r="O5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -1449,19 +1467,21 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="4"/>
+      <c r="P6" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -1510,7 +1530,9 @@
       <c r="O7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="4"/>
+      <c r="P7" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
@@ -1559,7 +1581,9 @@
       <c r="O8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -1608,7 +1632,9 @@
       <c r="O9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="4"/>
+      <c r="P9" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -1657,7 +1683,9 @@
       <c r="O10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="P10" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -1694,19 +1722,21 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -1755,7 +1785,9 @@
       <c r="O12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -1792,19 +1824,21 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13" s="19">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1853,7 +1887,9 @@
       <c r="O14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="4"/>
+      <c r="P14" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
@@ -1902,7 +1938,9 @@
       <c r="O15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="4"/>
+      <c r="P15" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -1951,7 +1989,9 @@
       <c r="O16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="4"/>
+      <c r="P16" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
@@ -2000,7 +2040,9 @@
       <c r="O17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="4"/>
+      <c r="P17" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
@@ -2049,7 +2091,9 @@
       <c r="O18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="4"/>
+      <c r="P18" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
@@ -2089,16 +2133,18 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="19">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="4"/>
+      <c r="P19" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
@@ -2135,19 +2181,21 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20" s="19">
         <f>SUM(Táblázat3[[#This Row],[2025. 02. 20.]:[2025.05.22]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="4"/>
+      <c r="P20" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
@@ -2196,7 +2244,9 @@
       <c r="O21" t="s">
         <v>59</v>
       </c>
-      <c r="P21" s="4"/>
+      <c r="P21" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
@@ -2244,20 +2294,20 @@
       </c>
       <c r="L22">
         <f>SUM(Táblázat3[2025. 05. 15.])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M22">
         <f>SUM(Táblázat3[2025.05.22])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
